--- a/Code/Results/Cases/Case_2_178/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_178/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9980209143843408</v>
+        <v>1.025763182567854</v>
       </c>
       <c r="D2">
-        <v>1.020839892100987</v>
+        <v>1.036250852028061</v>
       </c>
       <c r="E2">
-        <v>1.021755440827007</v>
+        <v>1.047172102482544</v>
       </c>
       <c r="F2">
-        <v>1.028854939120579</v>
+        <v>1.050967896383689</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044458222103872</v>
+        <v>1.033887488249528</v>
       </c>
       <c r="J2">
-        <v>1.020260981124464</v>
+        <v>1.030930388913919</v>
       </c>
       <c r="K2">
-        <v>1.032016332492364</v>
+        <v>1.039045129379645</v>
       </c>
       <c r="L2">
-        <v>1.032919784916178</v>
+        <v>1.049935483952231</v>
       </c>
       <c r="M2">
-        <v>1.039926398856014</v>
+        <v>1.053720702712474</v>
       </c>
       <c r="N2">
-        <v>1.010701325032303</v>
+        <v>1.014342986470656</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.00176100107328</v>
+        <v>1.026564937148405</v>
       </c>
       <c r="D3">
-        <v>1.023539231232898</v>
+        <v>1.036853143510253</v>
       </c>
       <c r="E3">
-        <v>1.025228629801932</v>
+        <v>1.047993357873456</v>
       </c>
       <c r="F3">
-        <v>1.032193622672588</v>
+        <v>1.051741229860379</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045213473207462</v>
+        <v>1.033994849320018</v>
       </c>
       <c r="J3">
-        <v>1.022203774273001</v>
+        <v>1.031372377749227</v>
       </c>
       <c r="K3">
-        <v>1.033879528128933</v>
+        <v>1.03945753397373</v>
       </c>
       <c r="L3">
-        <v>1.035548569573453</v>
+        <v>1.050568505358021</v>
       </c>
       <c r="M3">
-        <v>1.042430506603412</v>
+        <v>1.054306689496411</v>
       </c>
       <c r="N3">
-        <v>1.011354561631056</v>
+        <v>1.01449054639132</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.004138300852935</v>
+        <v>1.027084436247216</v>
       </c>
       <c r="D4">
-        <v>1.025257579137629</v>
+        <v>1.037243353731873</v>
       </c>
       <c r="E4">
-        <v>1.027444381670465</v>
+        <v>1.048526113404673</v>
       </c>
       <c r="F4">
-        <v>1.034321291916568</v>
+        <v>1.052242621523716</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04568383615287</v>
+        <v>1.034063194436738</v>
       </c>
       <c r="J4">
-        <v>1.023436737605879</v>
+        <v>1.031658421301696</v>
       </c>
       <c r="K4">
-        <v>1.035060432663953</v>
+        <v>1.039724178176769</v>
       </c>
       <c r="L4">
-        <v>1.037222487216476</v>
+        <v>1.050978808175542</v>
       </c>
       <c r="M4">
-        <v>1.044022410643036</v>
+        <v>1.054686192548976</v>
       </c>
       <c r="N4">
-        <v>1.011768988877013</v>
+        <v>1.01458600739883</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.005127779214116</v>
+        <v>1.027303001924941</v>
       </c>
       <c r="D5">
-        <v>1.025973361442458</v>
+        <v>1.03740751286386</v>
       </c>
       <c r="E5">
-        <v>1.028368530748785</v>
+        <v>1.048750404527504</v>
       </c>
       <c r="F5">
-        <v>1.035208152935684</v>
+        <v>1.052453642229037</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045877247757275</v>
+        <v>1.034091656767008</v>
       </c>
       <c r="J5">
-        <v>1.023949432566283</v>
+        <v>1.031778684004834</v>
       </c>
       <c r="K5">
-        <v>1.035551097341191</v>
+        <v>1.039836223929975</v>
       </c>
       <c r="L5">
-        <v>1.037919888063871</v>
+        <v>1.051151464269797</v>
       </c>
       <c r="M5">
-        <v>1.044685007965862</v>
+        <v>1.054845812995141</v>
       </c>
       <c r="N5">
-        <v>1.011941281971759</v>
+        <v>1.014626133910708</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.005293342815248</v>
+        <v>1.027339709878785</v>
       </c>
       <c r="D6">
-        <v>1.026093161442772</v>
+        <v>1.03743508257785</v>
       </c>
       <c r="E6">
-        <v>1.028523274511839</v>
+        <v>1.04878808273854</v>
       </c>
       <c r="F6">
-        <v>1.035356620529059</v>
+        <v>1.052489087290894</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045909470271716</v>
+        <v>1.034096419866556</v>
       </c>
       <c r="J6">
-        <v>1.024035189362512</v>
+        <v>1.031798877189775</v>
       </c>
       <c r="K6">
-        <v>1.035633146322933</v>
+        <v>1.039855033846034</v>
       </c>
       <c r="L6">
-        <v>1.038036619275317</v>
+        <v>1.051180463600271</v>
       </c>
       <c r="M6">
-        <v>1.044795876326871</v>
+        <v>1.054872618456397</v>
       </c>
       <c r="N6">
-        <v>1.011970098727161</v>
+        <v>1.0146328710042</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.004151560967354</v>
+        <v>1.027087356073599</v>
       </c>
       <c r="D7">
-        <v>1.025267169218115</v>
+        <v>1.03724554678574</v>
       </c>
       <c r="E7">
-        <v>1.027456758801385</v>
+        <v>1.048529109136161</v>
       </c>
       <c r="F7">
-        <v>1.034333171826107</v>
+        <v>1.052245440269435</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045686437459346</v>
+        <v>1.034063575813416</v>
       </c>
       <c r="J7">
-        <v>1.023443610251997</v>
+        <v>1.0316600282202</v>
       </c>
       <c r="K7">
-        <v>1.0350670115248</v>
+        <v>1.039725675541608</v>
       </c>
       <c r="L7">
-        <v>1.037231830510533</v>
+        <v>1.05098111456941</v>
       </c>
       <c r="M7">
-        <v>1.044031290173477</v>
+        <v>1.054688325103396</v>
       </c>
       <c r="N7">
-        <v>1.011771298598586</v>
+        <v>1.014586543592653</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9992939408957039</v>
+        <v>1.026033991141871</v>
       </c>
       <c r="D8">
-        <v>1.021758108622497</v>
+        <v>1.036454297190206</v>
       </c>
       <c r="E8">
-        <v>1.022935906447203</v>
+        <v>1.047449369130004</v>
       </c>
       <c r="F8">
-        <v>1.029990160828382</v>
+        <v>1.051229041130159</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044717296408055</v>
+        <v>1.033924003871813</v>
       </c>
       <c r="J8">
-        <v>1.020922644269375</v>
+        <v>1.031079750544603</v>
       </c>
       <c r="K8">
-        <v>1.032651202478766</v>
+        <v>1.03918454590685</v>
       </c>
       <c r="L8">
-        <v>1.033813906484608</v>
+        <v>1.050149271412859</v>
       </c>
       <c r="M8">
-        <v>1.040778659954808</v>
+        <v>1.053918670228053</v>
       </c>
       <c r="N8">
-        <v>1.010923827774775</v>
+        <v>1.01439285891779</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9903921680940737</v>
+        <v>1.024183346401808</v>
       </c>
       <c r="D9">
-        <v>1.015350170213453</v>
+        <v>1.035063831727843</v>
       </c>
       <c r="E9">
-        <v>1.014717008785044</v>
+        <v>1.045557149465961</v>
       </c>
       <c r="F9">
-        <v>1.022076933478361</v>
+        <v>1.049445716524059</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042866266533474</v>
+        <v>1.033669477929485</v>
       </c>
       <c r="J9">
-        <v>1.016288826037646</v>
+        <v>1.030057646779522</v>
       </c>
       <c r="K9">
-        <v>1.028199015808001</v>
+        <v>1.03822946643414</v>
       </c>
       <c r="L9">
-        <v>1.027575741565759</v>
+        <v>1.048688862572526</v>
       </c>
       <c r="M9">
-        <v>1.034821701961459</v>
+        <v>1.05256504759623</v>
       </c>
       <c r="N9">
-        <v>1.009365071066996</v>
+        <v>1.014051428695169</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9842066354752168</v>
+        <v>1.022953400398522</v>
       </c>
       <c r="D10">
-        <v>1.010915919895097</v>
+        <v>1.034139536081107</v>
       </c>
       <c r="E10">
-        <v>1.009052876615415</v>
+        <v>1.044302801725321</v>
       </c>
       <c r="F10">
-        <v>1.016611855121582</v>
+        <v>1.048262137802435</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041531703872768</v>
+        <v>1.03349406600594</v>
       </c>
       <c r="J10">
-        <v>1.013061184840356</v>
+        <v>1.029376604724999</v>
       </c>
       <c r="K10">
-        <v>1.02509084191954</v>
+        <v>1.037591795069927</v>
       </c>
       <c r="L10">
-        <v>1.023260579949189</v>
+        <v>1.047718995313682</v>
       </c>
       <c r="M10">
-        <v>1.030687518011548</v>
+        <v>1.051664489778365</v>
       </c>
       <c r="N10">
-        <v>1.008278782456686</v>
+        <v>1.013823747542387</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9814636840197091</v>
+        <v>1.022421748081789</v>
       </c>
       <c r="D11">
-        <v>1.00895466582971</v>
+        <v>1.033739966148158</v>
       </c>
       <c r="E11">
-        <v>1.006552845740534</v>
+        <v>1.043761373670275</v>
       </c>
       <c r="F11">
-        <v>1.014196999333717</v>
+        <v>1.047750920178171</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040928971552958</v>
+        <v>1.033416761052823</v>
       </c>
       <c r="J11">
-        <v>1.011628457262035</v>
+        <v>1.029081808053936</v>
       </c>
       <c r="K11">
-        <v>1.023709663250521</v>
+        <v>1.037315468295719</v>
       </c>
       <c r="L11">
-        <v>1.021352234063766</v>
+        <v>1.047299940999931</v>
       </c>
       <c r="M11">
-        <v>1.028856057067223</v>
+        <v>1.051275000866628</v>
       </c>
       <c r="N11">
-        <v>1.007796484598439</v>
+        <v>1.013725150641671</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9804346737578191</v>
+        <v>1.022224409139465</v>
       </c>
       <c r="D12">
-        <v>1.008219737636719</v>
+        <v>1.033591648645987</v>
       </c>
       <c r="E12">
-        <v>1.00561677803948</v>
+        <v>1.043560522694611</v>
       </c>
       <c r="F12">
-        <v>1.013292425760369</v>
+        <v>1.047561225654062</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040701263955545</v>
+        <v>1.033387844372168</v>
       </c>
       <c r="J12">
-        <v>1.011090791986346</v>
+        <v>1.028972323661372</v>
       </c>
       <c r="K12">
-        <v>1.023191136765377</v>
+        <v>1.037212797977812</v>
       </c>
       <c r="L12">
-        <v>1.020637154825022</v>
+        <v>1.047144423280155</v>
       </c>
       <c r="M12">
-        <v>1.028169319099972</v>
+        <v>1.051130398026066</v>
       </c>
       <c r="N12">
-        <v>1.00761547795515</v>
+        <v>1.013688526428217</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9806558671136265</v>
+        <v>1.022266732629888</v>
       </c>
       <c r="D13">
-        <v>1.008377677279849</v>
+        <v>1.033623458671328</v>
       </c>
       <c r="E13">
-        <v>1.005817909958774</v>
+        <v>1.043603594132234</v>
       </c>
       <c r="F13">
-        <v>1.01348680843659</v>
+        <v>1.047601906938356</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040750282665824</v>
+        <v>1.033394056235978</v>
       </c>
       <c r="J13">
-        <v>1.011206374745665</v>
+        <v>1.028995807679902</v>
       </c>
       <c r="K13">
-        <v>1.023302614276396</v>
+        <v>1.037234822455485</v>
       </c>
       <c r="L13">
-        <v>1.020790827991768</v>
+        <v>1.047177776098318</v>
       </c>
       <c r="M13">
-        <v>1.028316922715257</v>
+        <v>1.051161412598957</v>
       </c>
       <c r="N13">
-        <v>1.007654389781643</v>
+        <v>1.013696382480809</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.981378835607646</v>
+        <v>1.022405433108625</v>
       </c>
       <c r="D14">
-        <v>1.008894049073667</v>
+        <v>1.033727704114307</v>
       </c>
       <c r="E14">
-        <v>1.006475623874816</v>
+        <v>1.043744765959403</v>
       </c>
       <c r="F14">
-        <v>1.014122383660506</v>
+        <v>1.047735235989966</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040910227767096</v>
+        <v>1.033414374911272</v>
       </c>
       <c r="J14">
-        <v>1.011584126844811</v>
+        <v>1.029072757701336</v>
       </c>
       <c r="K14">
-        <v>1.023666914919614</v>
+        <v>1.03730698214405</v>
       </c>
       <c r="L14">
-        <v>1.021293254050009</v>
+        <v>1.047287083037017</v>
       </c>
       <c r="M14">
-        <v>1.028799424153489</v>
+        <v>1.051263046498461</v>
       </c>
       <c r="N14">
-        <v>1.007781560876098</v>
+        <v>1.013722123289013</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9818229205670915</v>
+        <v>1.022490909710009</v>
       </c>
       <c r="D15">
-        <v>1.009211343136696</v>
+        <v>1.033791946556766</v>
       </c>
       <c r="E15">
-        <v>1.006879866752602</v>
+        <v>1.043831781034392</v>
       </c>
       <c r="F15">
-        <v>1.014512967393572</v>
+        <v>1.047817410252913</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.04100826542429</v>
+        <v>1.033426867148232</v>
       </c>
       <c r="J15">
-        <v>1.011816138972396</v>
+        <v>1.029120171338127</v>
       </c>
       <c r="K15">
-        <v>1.023890638571558</v>
+        <v>1.037351438144</v>
       </c>
       <c r="L15">
-        <v>1.02160198156788</v>
+        <v>1.047354448951468</v>
       </c>
       <c r="M15">
-        <v>1.029095846824398</v>
+        <v>1.05132567591799</v>
       </c>
       <c r="N15">
-        <v>1.007859666660381</v>
+        <v>1.013737982941216</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9843872774187744</v>
+        <v>1.022988704001172</v>
       </c>
       <c r="D16">
-        <v>1.011045193572511</v>
+        <v>1.034166068215516</v>
       </c>
       <c r="E16">
-        <v>1.00921776931953</v>
+        <v>1.044338770795165</v>
       </c>
       <c r="F16">
-        <v>1.016771074383066</v>
+        <v>1.048296092783004</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041571173822965</v>
+        <v>1.033499168089446</v>
       </c>
       <c r="J16">
-        <v>1.013155512496807</v>
+        <v>1.029396171609929</v>
       </c>
       <c r="K16">
-        <v>1.025181746174892</v>
+        <v>1.037610129647239</v>
       </c>
       <c r="L16">
-        <v>1.023386370125368</v>
+        <v>1.047746825781406</v>
       </c>
       <c r="M16">
-        <v>1.030808174845874</v>
+        <v>1.051690348688872</v>
       </c>
       <c r="N16">
-        <v>1.008310533977394</v>
+        <v>1.013830290936226</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9859782294931044</v>
+        <v>1.023301205448081</v>
       </c>
       <c r="D17">
-        <v>1.012184323629428</v>
+        <v>1.03440092192376</v>
       </c>
       <c r="E17">
-        <v>1.010671356259354</v>
+        <v>1.04465725218273</v>
       </c>
       <c r="F17">
-        <v>1.018174341800241</v>
+        <v>1.048596701867063</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041917553328557</v>
+        <v>1.033544159510167</v>
       </c>
       <c r="J17">
-        <v>1.013986115915537</v>
+        <v>1.029569326747468</v>
       </c>
       <c r="K17">
-        <v>1.025982037797965</v>
+        <v>1.037772344547612</v>
       </c>
       <c r="L17">
-        <v>1.024494829770914</v>
+        <v>1.047993196863384</v>
       </c>
       <c r="M17">
-        <v>1.031871040256898</v>
+        <v>1.051919222317878</v>
       </c>
       <c r="N17">
-        <v>1.008590111096308</v>
+        <v>1.013888191113995</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.986900006386271</v>
+        <v>1.023483571133046</v>
       </c>
       <c r="D18">
-        <v>1.012844801264608</v>
+        <v>1.034537971297922</v>
       </c>
       <c r="E18">
-        <v>1.011514655631101</v>
+        <v>1.044843182101264</v>
       </c>
       <c r="F18">
-        <v>1.018988191942708</v>
+        <v>1.048772165392476</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042117198647106</v>
+        <v>1.033570271899965</v>
       </c>
       <c r="J18">
-        <v>1.014467217166979</v>
+        <v>1.029670334675147</v>
       </c>
       <c r="K18">
-        <v>1.02644543989887</v>
+        <v>1.037866941313262</v>
       </c>
       <c r="L18">
-        <v>1.025137547707889</v>
+        <v>1.048136988108033</v>
       </c>
       <c r="M18">
-        <v>1.032487020745614</v>
+        <v>1.052052764558516</v>
       </c>
       <c r="N18">
-        <v>1.008752037617733</v>
+        <v>1.013921962362828</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.987213270479421</v>
+        <v>1.023545768138895</v>
       </c>
       <c r="D19">
-        <v>1.013069342926223</v>
+        <v>1.034584712248958</v>
       </c>
       <c r="E19">
-        <v>1.011801436051806</v>
+        <v>1.044906607338296</v>
       </c>
       <c r="F19">
-        <v>1.019264913925837</v>
+        <v>1.048832014772887</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042184869508991</v>
+        <v>1.033579153419825</v>
       </c>
       <c r="J19">
-        <v>1.014630693799606</v>
+        <v>1.029704777332995</v>
       </c>
       <c r="K19">
-        <v>1.026602877849739</v>
+        <v>1.037899192855043</v>
       </c>
       <c r="L19">
-        <v>1.025356055946675</v>
+        <v>1.048186031935666</v>
       </c>
       <c r="M19">
-        <v>1.032696387779748</v>
+        <v>1.052098306441474</v>
       </c>
       <c r="N19">
-        <v>1.008807057976819</v>
+        <v>1.013933477310806</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9858081797367809</v>
+        <v>1.023267667794131</v>
       </c>
       <c r="D20">
-        <v>1.012062516823353</v>
+        <v>1.034375717794274</v>
       </c>
       <c r="E20">
-        <v>1.010515873366569</v>
+        <v>1.044623065049724</v>
       </c>
       <c r="F20">
-        <v>1.018024267860991</v>
+        <v>1.048564436584604</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041880638144357</v>
+        <v>1.033539345833579</v>
       </c>
       <c r="J20">
-        <v>1.013897350653669</v>
+        <v>1.029550747851219</v>
       </c>
       <c r="K20">
-        <v>1.02589652651921</v>
+        <v>1.037754942528014</v>
       </c>
       <c r="L20">
-        <v>1.02437630021687</v>
+        <v>1.047966754549466</v>
       </c>
       <c r="M20">
-        <v>1.031757417298051</v>
+        <v>1.051894661766561</v>
       </c>
       <c r="N20">
-        <v>1.008560234139629</v>
+        <v>1.013881979067145</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9811662235397766</v>
+        <v>1.022364585384327</v>
       </c>
       <c r="D21">
-        <v>1.008742169989784</v>
+        <v>1.033697003637736</v>
       </c>
       <c r="E21">
-        <v>1.006282151689161</v>
+        <v>1.043703187193616</v>
       </c>
       <c r="F21">
-        <v>1.013935434660555</v>
+        <v>1.047695968521665</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040863234296741</v>
+        <v>1.033408397143268</v>
       </c>
       <c r="J21">
-        <v>1.011473041444147</v>
+        <v>1.029050097379542</v>
       </c>
       <c r="K21">
-        <v>1.023559790725257</v>
+        <v>1.037285733737888</v>
       </c>
       <c r="L21">
-        <v>1.0211454762551</v>
+        <v>1.047254891052005</v>
       </c>
       <c r="M21">
-        <v>1.028657519617837</v>
+        <v>1.051233115882651</v>
       </c>
       <c r="N21">
-        <v>1.007744164059644</v>
+        <v>1.013714543284462</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9781886379099096</v>
+        <v>1.021797594841898</v>
       </c>
       <c r="D22">
-        <v>1.006617198382371</v>
+        <v>1.033270851905178</v>
       </c>
       <c r="E22">
-        <v>1.003576998131723</v>
+        <v>1.043126326006316</v>
       </c>
       <c r="F22">
-        <v>1.011320551559175</v>
+        <v>1.047151054370684</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040201367146337</v>
+        <v>1.033324895109812</v>
       </c>
       <c r="J22">
-        <v>1.00991692779075</v>
+        <v>1.028735413045139</v>
       </c>
       <c r="K22">
-        <v>1.022058697251391</v>
+        <v>1.036990549235298</v>
       </c>
       <c r="L22">
-        <v>1.01907792548345</v>
+        <v>1.04680811186122</v>
       </c>
       <c r="M22">
-        <v>1.026671033187436</v>
+        <v>1.050817585564875</v>
       </c>
       <c r="N22">
-        <v>1.00722027215264</v>
+        <v>1.013609264596078</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9797728638424956</v>
+        <v>1.022098089565833</v>
       </c>
       <c r="D23">
-        <v>1.007747309458508</v>
+        <v>1.033496707099901</v>
       </c>
       <c r="E23">
-        <v>1.005015261535288</v>
+        <v>1.043431987885094</v>
       </c>
       <c r="F23">
-        <v>1.012711036156757</v>
+        <v>1.047439816190997</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040554370193371</v>
+        <v>1.033369271726041</v>
       </c>
       <c r="J23">
-        <v>1.010744944814106</v>
+        <v>1.028902223761762</v>
       </c>
       <c r="K23">
-        <v>1.022857544411644</v>
+        <v>1.037147048171045</v>
       </c>
       <c r="L23">
-        <v>1.020177490920102</v>
+        <v>1.047044881754259</v>
       </c>
       <c r="M23">
-        <v>1.027727742058922</v>
+        <v>1.051037826603676</v>
       </c>
       <c r="N23">
-        <v>1.007499044148384</v>
+        <v>1.013665075148107</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9858850370246953</v>
+        <v>1.023282821741951</v>
       </c>
       <c r="D24">
-        <v>1.012117568289269</v>
+        <v>1.034387106260538</v>
       </c>
       <c r="E24">
-        <v>1.010586143441691</v>
+        <v>1.04463851223368</v>
       </c>
       <c r="F24">
-        <v>1.018092094168477</v>
+        <v>1.048579015496118</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041897325912514</v>
+        <v>1.033541521329661</v>
       </c>
       <c r="J24">
-        <v>1.013937470271737</v>
+        <v>1.029559142825641</v>
       </c>
       <c r="K24">
-        <v>1.025935175861817</v>
+        <v>1.037762805814954</v>
       </c>
       <c r="L24">
-        <v>1.024429870432</v>
+        <v>1.047978702423855</v>
       </c>
       <c r="M24">
-        <v>1.031808770876565</v>
+        <v>1.0519057594864</v>
       </c>
       <c r="N24">
-        <v>1.008573737787246</v>
+        <v>1.013884786026706</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9927361203719414</v>
+        <v>1.024661117440128</v>
       </c>
       <c r="D25">
-        <v>1.017034515341978</v>
+        <v>1.035422836162961</v>
       </c>
       <c r="E25">
-        <v>1.016873227144849</v>
+        <v>1.046045085764334</v>
       </c>
       <c r="F25">
-        <v>1.024154995963661</v>
+        <v>1.04990582304159</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043362200631487</v>
+        <v>1.03373629168148</v>
       </c>
       <c r="J25">
-        <v>1.01751044051352</v>
+        <v>1.030321827301556</v>
       </c>
       <c r="K25">
-        <v>1.029374024823722</v>
+        <v>1.038476551237248</v>
       </c>
       <c r="L25">
-        <v>1.029215135383815</v>
+        <v>1.049065761956773</v>
       </c>
       <c r="M25">
-        <v>1.03638956161653</v>
+        <v>1.052914671752621</v>
       </c>
       <c r="N25">
-        <v>1.009776111184028</v>
+        <v>1.014139709426674</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_178/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_178/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.025763182567854</v>
+        <v>0.9980209143843402</v>
       </c>
       <c r="D2">
-        <v>1.036250852028061</v>
+        <v>1.020839892100986</v>
       </c>
       <c r="E2">
-        <v>1.047172102482544</v>
+        <v>1.021755440827006</v>
       </c>
       <c r="F2">
-        <v>1.050967896383689</v>
+        <v>1.028854939120579</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.033887488249528</v>
+        <v>1.044458222103872</v>
       </c>
       <c r="J2">
-        <v>1.030930388913919</v>
+        <v>1.020260981124463</v>
       </c>
       <c r="K2">
-        <v>1.039045129379645</v>
+        <v>1.032016332492363</v>
       </c>
       <c r="L2">
-        <v>1.049935483952231</v>
+        <v>1.032919784916177</v>
       </c>
       <c r="M2">
-        <v>1.053720702712474</v>
+        <v>1.039926398856014</v>
       </c>
       <c r="N2">
-        <v>1.014342986470656</v>
+        <v>1.010701325032303</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.026564937148405</v>
+        <v>1.00176100107328</v>
       </c>
       <c r="D3">
-        <v>1.036853143510253</v>
+        <v>1.023539231232899</v>
       </c>
       <c r="E3">
-        <v>1.047993357873456</v>
+        <v>1.025228629801932</v>
       </c>
       <c r="F3">
-        <v>1.051741229860379</v>
+        <v>1.032193622672588</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.033994849320018</v>
+        <v>1.045213473207462</v>
       </c>
       <c r="J3">
-        <v>1.031372377749227</v>
+        <v>1.022203774273001</v>
       </c>
       <c r="K3">
-        <v>1.03945753397373</v>
+        <v>1.033879528128933</v>
       </c>
       <c r="L3">
-        <v>1.050568505358021</v>
+        <v>1.035548569573454</v>
       </c>
       <c r="M3">
-        <v>1.054306689496411</v>
+        <v>1.042430506603412</v>
       </c>
       <c r="N3">
-        <v>1.01449054639132</v>
+        <v>1.011354561631056</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.027084436247216</v>
+        <v>1.004138300852935</v>
       </c>
       <c r="D4">
-        <v>1.037243353731873</v>
+        <v>1.025257579137629</v>
       </c>
       <c r="E4">
-        <v>1.048526113404673</v>
+        <v>1.027444381670465</v>
       </c>
       <c r="F4">
-        <v>1.052242621523716</v>
+        <v>1.034321291916568</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.034063194436738</v>
+        <v>1.04568383615287</v>
       </c>
       <c r="J4">
-        <v>1.031658421301696</v>
+        <v>1.023436737605879</v>
       </c>
       <c r="K4">
-        <v>1.039724178176769</v>
+        <v>1.035060432663953</v>
       </c>
       <c r="L4">
-        <v>1.050978808175542</v>
+        <v>1.037222487216476</v>
       </c>
       <c r="M4">
-        <v>1.054686192548976</v>
+        <v>1.044022410643036</v>
       </c>
       <c r="N4">
-        <v>1.01458600739883</v>
+        <v>1.011768988877013</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.027303001924941</v>
+        <v>1.005127779214117</v>
       </c>
       <c r="D5">
-        <v>1.03740751286386</v>
+        <v>1.025973361442458</v>
       </c>
       <c r="E5">
-        <v>1.048750404527504</v>
+        <v>1.028368530748785</v>
       </c>
       <c r="F5">
-        <v>1.052453642229037</v>
+        <v>1.035208152935685</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.034091656767008</v>
+        <v>1.045877247757275</v>
       </c>
       <c r="J5">
-        <v>1.031778684004834</v>
+        <v>1.023949432566283</v>
       </c>
       <c r="K5">
-        <v>1.039836223929975</v>
+        <v>1.035551097341192</v>
       </c>
       <c r="L5">
-        <v>1.051151464269797</v>
+        <v>1.037919888063871</v>
       </c>
       <c r="M5">
-        <v>1.054845812995141</v>
+        <v>1.044685007965862</v>
       </c>
       <c r="N5">
-        <v>1.014626133910708</v>
+        <v>1.011941281971759</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.027339709878785</v>
+        <v>1.005293342815248</v>
       </c>
       <c r="D6">
-        <v>1.03743508257785</v>
+        <v>1.026093161442771</v>
       </c>
       <c r="E6">
-        <v>1.04878808273854</v>
+        <v>1.028523274511839</v>
       </c>
       <c r="F6">
-        <v>1.052489087290894</v>
+        <v>1.035356620529059</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.034096419866556</v>
+        <v>1.045909470271716</v>
       </c>
       <c r="J6">
-        <v>1.031798877189775</v>
+        <v>1.024035189362512</v>
       </c>
       <c r="K6">
-        <v>1.039855033846034</v>
+        <v>1.035633146322933</v>
       </c>
       <c r="L6">
-        <v>1.051180463600271</v>
+        <v>1.038036619275317</v>
       </c>
       <c r="M6">
-        <v>1.054872618456397</v>
+        <v>1.04479587632687</v>
       </c>
       <c r="N6">
-        <v>1.0146328710042</v>
+        <v>1.011970098727162</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.027087356073599</v>
+        <v>1.004151560967354</v>
       </c>
       <c r="D7">
-        <v>1.03724554678574</v>
+        <v>1.025267169218115</v>
       </c>
       <c r="E7">
-        <v>1.048529109136161</v>
+        <v>1.027456758801385</v>
       </c>
       <c r="F7">
-        <v>1.052245440269435</v>
+        <v>1.034333171826106</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.034063575813416</v>
+        <v>1.045686437459346</v>
       </c>
       <c r="J7">
-        <v>1.0316600282202</v>
+        <v>1.023443610251997</v>
       </c>
       <c r="K7">
-        <v>1.039725675541608</v>
+        <v>1.0350670115248</v>
       </c>
       <c r="L7">
-        <v>1.05098111456941</v>
+        <v>1.037231830510533</v>
       </c>
       <c r="M7">
-        <v>1.054688325103396</v>
+        <v>1.044031290173477</v>
       </c>
       <c r="N7">
-        <v>1.014586543592653</v>
+        <v>1.011771298598587</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.026033991141871</v>
+        <v>0.9992939408957041</v>
       </c>
       <c r="D8">
-        <v>1.036454297190206</v>
+        <v>1.021758108622497</v>
       </c>
       <c r="E8">
-        <v>1.047449369130004</v>
+        <v>1.022935906447203</v>
       </c>
       <c r="F8">
-        <v>1.051229041130159</v>
+        <v>1.029990160828382</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.033924003871813</v>
+        <v>1.044717296408055</v>
       </c>
       <c r="J8">
-        <v>1.031079750544603</v>
+        <v>1.020922644269375</v>
       </c>
       <c r="K8">
-        <v>1.03918454590685</v>
+        <v>1.032651202478766</v>
       </c>
       <c r="L8">
-        <v>1.050149271412859</v>
+        <v>1.033813906484608</v>
       </c>
       <c r="M8">
-        <v>1.053918670228053</v>
+        <v>1.040778659954808</v>
       </c>
       <c r="N8">
-        <v>1.01439285891779</v>
+        <v>1.010923827774775</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.024183346401808</v>
+        <v>0.9903921680940733</v>
       </c>
       <c r="D9">
-        <v>1.035063831727843</v>
+        <v>1.015350170213453</v>
       </c>
       <c r="E9">
-        <v>1.045557149465961</v>
+        <v>1.014717008785043</v>
       </c>
       <c r="F9">
-        <v>1.049445716524059</v>
+        <v>1.022076933478361</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033669477929485</v>
+        <v>1.042866266533474</v>
       </c>
       <c r="J9">
-        <v>1.030057646779522</v>
+        <v>1.016288826037645</v>
       </c>
       <c r="K9">
-        <v>1.03822946643414</v>
+        <v>1.028199015808</v>
       </c>
       <c r="L9">
-        <v>1.048688862572526</v>
+        <v>1.027575741565759</v>
       </c>
       <c r="M9">
-        <v>1.05256504759623</v>
+        <v>1.034821701961459</v>
       </c>
       <c r="N9">
-        <v>1.014051428695169</v>
+        <v>1.009365071066996</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.022953400398522</v>
+        <v>0.9842066354752177</v>
       </c>
       <c r="D10">
-        <v>1.034139536081107</v>
+        <v>1.010915919895098</v>
       </c>
       <c r="E10">
-        <v>1.044302801725321</v>
+        <v>1.009052876615415</v>
       </c>
       <c r="F10">
-        <v>1.048262137802435</v>
+        <v>1.016611855121583</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03349406600594</v>
+        <v>1.041531703872768</v>
       </c>
       <c r="J10">
-        <v>1.029376604724999</v>
+        <v>1.013061184840357</v>
       </c>
       <c r="K10">
-        <v>1.037591795069927</v>
+        <v>1.025090841919541</v>
       </c>
       <c r="L10">
-        <v>1.047718995313682</v>
+        <v>1.02326057994919</v>
       </c>
       <c r="M10">
-        <v>1.051664489778365</v>
+        <v>1.030687518011548</v>
       </c>
       <c r="N10">
-        <v>1.013823747542387</v>
+        <v>1.008278782456687</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.022421748081789</v>
+        <v>0.9814636840197095</v>
       </c>
       <c r="D11">
-        <v>1.033739966148158</v>
+        <v>1.00895466582971</v>
       </c>
       <c r="E11">
-        <v>1.043761373670275</v>
+        <v>1.006552845740535</v>
       </c>
       <c r="F11">
-        <v>1.047750920178171</v>
+        <v>1.014196999333717</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033416761052823</v>
+        <v>1.040928971552958</v>
       </c>
       <c r="J11">
-        <v>1.029081808053936</v>
+        <v>1.011628457262035</v>
       </c>
       <c r="K11">
-        <v>1.037315468295719</v>
+        <v>1.023709663250522</v>
       </c>
       <c r="L11">
-        <v>1.047299940999931</v>
+        <v>1.021352234063766</v>
       </c>
       <c r="M11">
-        <v>1.051275000866628</v>
+        <v>1.028856057067224</v>
       </c>
       <c r="N11">
-        <v>1.013725150641671</v>
+        <v>1.007796484598439</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.022224409139465</v>
+        <v>0.9804346737578191</v>
       </c>
       <c r="D12">
-        <v>1.033591648645987</v>
+        <v>1.008219737636719</v>
       </c>
       <c r="E12">
-        <v>1.043560522694611</v>
+        <v>1.00561677803948</v>
       </c>
       <c r="F12">
-        <v>1.047561225654062</v>
+        <v>1.013292425760369</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033387844372168</v>
+        <v>1.040701263955545</v>
       </c>
       <c r="J12">
-        <v>1.028972323661372</v>
+        <v>1.011090791986347</v>
       </c>
       <c r="K12">
-        <v>1.037212797977812</v>
+        <v>1.023191136765378</v>
       </c>
       <c r="L12">
-        <v>1.047144423280155</v>
+        <v>1.020637154825022</v>
       </c>
       <c r="M12">
-        <v>1.051130398026066</v>
+        <v>1.028169319099972</v>
       </c>
       <c r="N12">
-        <v>1.013688526428217</v>
+        <v>1.00761547795515</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.022266732629888</v>
+        <v>0.9806558671136272</v>
       </c>
       <c r="D13">
-        <v>1.033623458671328</v>
+        <v>1.00837767727985</v>
       </c>
       <c r="E13">
-        <v>1.043603594132234</v>
+        <v>1.005817909958774</v>
       </c>
       <c r="F13">
-        <v>1.047601906938356</v>
+        <v>1.01348680843659</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033394056235978</v>
+        <v>1.040750282665824</v>
       </c>
       <c r="J13">
-        <v>1.028995807679902</v>
+        <v>1.011206374745665</v>
       </c>
       <c r="K13">
-        <v>1.037234822455485</v>
+        <v>1.023302614276397</v>
       </c>
       <c r="L13">
-        <v>1.047177776098318</v>
+        <v>1.020790827991769</v>
       </c>
       <c r="M13">
-        <v>1.051161412598957</v>
+        <v>1.028316922715257</v>
       </c>
       <c r="N13">
-        <v>1.013696382480809</v>
+        <v>1.007654389781644</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.022405433108625</v>
+        <v>0.9813788356076457</v>
       </c>
       <c r="D14">
-        <v>1.033727704114307</v>
+        <v>1.008894049073667</v>
       </c>
       <c r="E14">
-        <v>1.043744765959403</v>
+        <v>1.006475623874816</v>
       </c>
       <c r="F14">
-        <v>1.047735235989966</v>
+        <v>1.014122383660506</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033414374911272</v>
+        <v>1.040910227767096</v>
       </c>
       <c r="J14">
-        <v>1.029072757701336</v>
+        <v>1.01158412684481</v>
       </c>
       <c r="K14">
-        <v>1.03730698214405</v>
+        <v>1.023666914919613</v>
       </c>
       <c r="L14">
-        <v>1.047287083037017</v>
+        <v>1.021293254050009</v>
       </c>
       <c r="M14">
-        <v>1.051263046498461</v>
+        <v>1.028799424153489</v>
       </c>
       <c r="N14">
-        <v>1.013722123289013</v>
+        <v>1.007781560876098</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.022490909710009</v>
+        <v>0.981822920567092</v>
       </c>
       <c r="D15">
-        <v>1.033791946556766</v>
+        <v>1.009211343136696</v>
       </c>
       <c r="E15">
-        <v>1.043831781034392</v>
+        <v>1.006879866752603</v>
       </c>
       <c r="F15">
-        <v>1.047817410252913</v>
+        <v>1.014512967393572</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033426867148232</v>
+        <v>1.04100826542429</v>
       </c>
       <c r="J15">
-        <v>1.029120171338127</v>
+        <v>1.011816138972397</v>
       </c>
       <c r="K15">
-        <v>1.037351438144</v>
+        <v>1.023890638571558</v>
       </c>
       <c r="L15">
-        <v>1.047354448951468</v>
+        <v>1.021601981567881</v>
       </c>
       <c r="M15">
-        <v>1.05132567591799</v>
+        <v>1.029095846824399</v>
       </c>
       <c r="N15">
-        <v>1.013737982941216</v>
+        <v>1.007859666660382</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.022988704001172</v>
+        <v>0.9843872774187747</v>
       </c>
       <c r="D16">
-        <v>1.034166068215516</v>
+        <v>1.011045193572511</v>
       </c>
       <c r="E16">
-        <v>1.044338770795165</v>
+        <v>1.00921776931953</v>
       </c>
       <c r="F16">
-        <v>1.048296092783004</v>
+        <v>1.016771074383066</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033499168089446</v>
+        <v>1.041571173822965</v>
       </c>
       <c r="J16">
-        <v>1.029396171609929</v>
+        <v>1.013155512496807</v>
       </c>
       <c r="K16">
-        <v>1.037610129647239</v>
+        <v>1.025181746174892</v>
       </c>
       <c r="L16">
-        <v>1.047746825781406</v>
+        <v>1.023386370125368</v>
       </c>
       <c r="M16">
-        <v>1.051690348688872</v>
+        <v>1.030808174845874</v>
       </c>
       <c r="N16">
-        <v>1.013830290936226</v>
+        <v>1.008310533977395</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.023301205448081</v>
+        <v>0.9859782294931044</v>
       </c>
       <c r="D17">
-        <v>1.03440092192376</v>
+        <v>1.012184323629428</v>
       </c>
       <c r="E17">
-        <v>1.04465725218273</v>
+        <v>1.010671356259354</v>
       </c>
       <c r="F17">
-        <v>1.048596701867063</v>
+        <v>1.018174341800241</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033544159510167</v>
+        <v>1.041917553328557</v>
       </c>
       <c r="J17">
-        <v>1.029569326747468</v>
+        <v>1.013986115915538</v>
       </c>
       <c r="K17">
-        <v>1.037772344547612</v>
+        <v>1.025982037797965</v>
       </c>
       <c r="L17">
-        <v>1.047993196863384</v>
+        <v>1.024494829770914</v>
       </c>
       <c r="M17">
-        <v>1.051919222317878</v>
+        <v>1.031871040256898</v>
       </c>
       <c r="N17">
-        <v>1.013888191113995</v>
+        <v>1.008590111096308</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.023483571133046</v>
+        <v>0.9869000063862707</v>
       </c>
       <c r="D18">
-        <v>1.034537971297922</v>
+        <v>1.012844801264607</v>
       </c>
       <c r="E18">
-        <v>1.044843182101264</v>
+        <v>1.0115146556311</v>
       </c>
       <c r="F18">
-        <v>1.048772165392476</v>
+        <v>1.018988191942707</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033570271899965</v>
+        <v>1.042117198647106</v>
       </c>
       <c r="J18">
-        <v>1.029670334675147</v>
+        <v>1.014467217166978</v>
       </c>
       <c r="K18">
-        <v>1.037866941313262</v>
+        <v>1.02644543989887</v>
       </c>
       <c r="L18">
-        <v>1.048136988108033</v>
+        <v>1.025137547707888</v>
       </c>
       <c r="M18">
-        <v>1.052052764558516</v>
+        <v>1.032487020745614</v>
       </c>
       <c r="N18">
-        <v>1.013921962362828</v>
+        <v>1.008752037617732</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.023545768138895</v>
+        <v>0.9872132704794205</v>
       </c>
       <c r="D19">
-        <v>1.034584712248958</v>
+        <v>1.013069342926223</v>
       </c>
       <c r="E19">
-        <v>1.044906607338296</v>
+        <v>1.011801436051806</v>
       </c>
       <c r="F19">
-        <v>1.048832014772887</v>
+        <v>1.019264913925836</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033579153419825</v>
+        <v>1.042184869508991</v>
       </c>
       <c r="J19">
-        <v>1.029704777332995</v>
+        <v>1.014630693799606</v>
       </c>
       <c r="K19">
-        <v>1.037899192855043</v>
+        <v>1.026602877849739</v>
       </c>
       <c r="L19">
-        <v>1.048186031935666</v>
+        <v>1.025356055946675</v>
       </c>
       <c r="M19">
-        <v>1.052098306441474</v>
+        <v>1.032696387779748</v>
       </c>
       <c r="N19">
-        <v>1.013933477310806</v>
+        <v>1.008807057976819</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.023267667794131</v>
+        <v>0.985808179736781</v>
       </c>
       <c r="D20">
-        <v>1.034375717794274</v>
+        <v>1.012062516823352</v>
       </c>
       <c r="E20">
-        <v>1.044623065049724</v>
+        <v>1.010515873366569</v>
       </c>
       <c r="F20">
-        <v>1.048564436584604</v>
+        <v>1.018024267860991</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033539345833579</v>
+        <v>1.041880638144357</v>
       </c>
       <c r="J20">
-        <v>1.029550747851219</v>
+        <v>1.01389735065367</v>
       </c>
       <c r="K20">
-        <v>1.037754942528014</v>
+        <v>1.02589652651921</v>
       </c>
       <c r="L20">
-        <v>1.047966754549466</v>
+        <v>1.02437630021687</v>
       </c>
       <c r="M20">
-        <v>1.051894661766561</v>
+        <v>1.031757417298051</v>
       </c>
       <c r="N20">
-        <v>1.013881979067145</v>
+        <v>1.008560234139629</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.022364585384327</v>
+        <v>0.9811662235397771</v>
       </c>
       <c r="D21">
-        <v>1.033697003637736</v>
+        <v>1.008742169989785</v>
       </c>
       <c r="E21">
-        <v>1.043703187193616</v>
+        <v>1.006282151689161</v>
       </c>
       <c r="F21">
-        <v>1.047695968521665</v>
+        <v>1.013935434660555</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033408397143268</v>
+        <v>1.040863234296741</v>
       </c>
       <c r="J21">
-        <v>1.029050097379542</v>
+        <v>1.011473041444148</v>
       </c>
       <c r="K21">
-        <v>1.037285733737888</v>
+        <v>1.023559790725257</v>
       </c>
       <c r="L21">
-        <v>1.047254891052005</v>
+        <v>1.0211454762551</v>
       </c>
       <c r="M21">
-        <v>1.051233115882651</v>
+        <v>1.028657519617837</v>
       </c>
       <c r="N21">
-        <v>1.013714543284462</v>
+        <v>1.007744164059644</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.021797594841898</v>
+        <v>0.9781886379099096</v>
       </c>
       <c r="D22">
-        <v>1.033270851905178</v>
+        <v>1.006617198382371</v>
       </c>
       <c r="E22">
-        <v>1.043126326006316</v>
+        <v>1.003576998131723</v>
       </c>
       <c r="F22">
-        <v>1.047151054370684</v>
+        <v>1.011320551559176</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033324895109812</v>
+        <v>1.040201367146337</v>
       </c>
       <c r="J22">
-        <v>1.028735413045139</v>
+        <v>1.00991692779075</v>
       </c>
       <c r="K22">
-        <v>1.036990549235298</v>
+        <v>1.022058697251392</v>
       </c>
       <c r="L22">
-        <v>1.04680811186122</v>
+        <v>1.019077925483451</v>
       </c>
       <c r="M22">
-        <v>1.050817585564875</v>
+        <v>1.026671033187437</v>
       </c>
       <c r="N22">
-        <v>1.013609264596078</v>
+        <v>1.007220272152639</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.022098089565833</v>
+        <v>0.9797728638424958</v>
       </c>
       <c r="D23">
-        <v>1.033496707099901</v>
+        <v>1.007747309458509</v>
       </c>
       <c r="E23">
-        <v>1.043431987885094</v>
+        <v>1.005015261535288</v>
       </c>
       <c r="F23">
-        <v>1.047439816190997</v>
+        <v>1.012711036156757</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033369271726041</v>
+        <v>1.040554370193371</v>
       </c>
       <c r="J23">
-        <v>1.028902223761762</v>
+        <v>1.010744944814106</v>
       </c>
       <c r="K23">
-        <v>1.037147048171045</v>
+        <v>1.022857544411644</v>
       </c>
       <c r="L23">
-        <v>1.047044881754259</v>
+        <v>1.020177490920102</v>
       </c>
       <c r="M23">
-        <v>1.051037826603676</v>
+        <v>1.027727742058923</v>
       </c>
       <c r="N23">
-        <v>1.013665075148107</v>
+        <v>1.007499044148384</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.023282821741951</v>
+        <v>0.9858850370246953</v>
       </c>
       <c r="D24">
-        <v>1.034387106260538</v>
+        <v>1.012117568289269</v>
       </c>
       <c r="E24">
-        <v>1.04463851223368</v>
+        <v>1.010586143441691</v>
       </c>
       <c r="F24">
-        <v>1.048579015496118</v>
+        <v>1.018092094168478</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033541521329661</v>
+        <v>1.041897325912514</v>
       </c>
       <c r="J24">
-        <v>1.029559142825641</v>
+        <v>1.013937470271737</v>
       </c>
       <c r="K24">
-        <v>1.037762805814954</v>
+        <v>1.025935175861816</v>
       </c>
       <c r="L24">
-        <v>1.047978702423855</v>
+        <v>1.024429870432</v>
       </c>
       <c r="M24">
-        <v>1.0519057594864</v>
+        <v>1.031808770876565</v>
       </c>
       <c r="N24">
-        <v>1.013884786026706</v>
+        <v>1.008573737787246</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.024661117440128</v>
+        <v>0.9927361203719407</v>
       </c>
       <c r="D25">
-        <v>1.035422836162961</v>
+        <v>1.017034515341978</v>
       </c>
       <c r="E25">
-        <v>1.046045085764334</v>
+        <v>1.016873227144848</v>
       </c>
       <c r="F25">
-        <v>1.04990582304159</v>
+        <v>1.02415499596366</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03373629168148</v>
+        <v>1.043362200631486</v>
       </c>
       <c r="J25">
-        <v>1.030321827301556</v>
+        <v>1.017510440513519</v>
       </c>
       <c r="K25">
-        <v>1.038476551237248</v>
+        <v>1.029374024823721</v>
       </c>
       <c r="L25">
-        <v>1.049065761956773</v>
+        <v>1.029215135383814</v>
       </c>
       <c r="M25">
-        <v>1.052914671752621</v>
+        <v>1.036389561616529</v>
       </c>
       <c r="N25">
-        <v>1.014139709426674</v>
+        <v>1.009776111184028</v>
       </c>
     </row>
   </sheetData>
